--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COOLPC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JEFFER\Desktop\educacionit\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD1F682-4006-44E6-83D3-94556CCB43FE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Java Standard Programming, J2SE 8.0</t>
   </si>
@@ -75,9 +76,6 @@
   </si>
   <si>
     <t> 19:00 a 22:00</t>
-  </si>
-  <si>
-    <t>Lun</t>
   </si>
   <si>
     <t>Sab</t>
@@ -95,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
@@ -129,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -199,13 +203,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="6" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -215,9 +218,11 @@
     <xf numFmtId="6" fontId="0" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Celda vinculada" xfId="2" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="3" builtinId="10"/>
@@ -497,12 +502,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,31 +571,31 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>15</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>1552</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>12</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>1512</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>43166</v>
       </c>
-      <c r="E7" s="9">
-        <v>43187</v>
+      <c r="E7" s="8">
+        <v>43193</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>15</v>
@@ -600,67 +605,59 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="14">
         <v>12</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="15">
         <v>1512</v>
       </c>
-      <c r="D8" s="9">
-        <v>43164</v>
-      </c>
-      <c r="E8" s="9">
-        <v>43185</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1609</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>43171</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>43205</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>1488</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>43161</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>43196</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -674,17 +671,17 @@
       <c r="C11" s="1">
         <v>1432</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>43204</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>43218</v>
       </c>
       <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -697,17 +694,17 @@
       <c r="C12" s="1">
         <v>2093</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>43197</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>43225</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
